--- a/Mapstat.xlsx
+++ b/Mapstat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18675" windowHeight="8475" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18675" windowHeight="8475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="2" r:id="rId1"/>
@@ -2489,7 +2489,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2542,7 +2542,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2560,9 +2560,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19931758530183727"/>
+          <c:x val="0.1993175853018373"/>
           <c:y val="6.8478968850212721E-2"/>
-          <c:w val="0.6036796058387438"/>
+          <c:w val="0.60367960583874392"/>
           <c:h val="0.89564660013262243"/>
         </c:manualLayout>
       </c:layout>
@@ -2606,7 +2606,7 @@
                   <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2633,7 +2633,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2766,7 +2766,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -2812,11 +2812,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="95726592"/>
-        <c:axId val="95761152"/>
+        <c:axId val="124071296"/>
+        <c:axId val="124089472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95726592"/>
+        <c:axId val="124071296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,14 +2824,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95761152"/>
+        <c:crossAx val="124089472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="l"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95761152"/>
+        <c:axId val="124089472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2839,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95726592"/>
+        <c:crossAx val="124071296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2848,7 +2848,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157480314965" l="0.70866141732283472" r="0.70866141732283472" t="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageMargins b="0.78740157480314954" l="0.70866141732283483" r="0.70866141732283483" t="0.78740157480314954" header="0.31496062992125995" footer="0.31496062992125995"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2984,7 +2984,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -3348,25 +3348,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96894976"/>
-        <c:axId val="96896512"/>
+        <c:axId val="124512896"/>
+        <c:axId val="124522880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96894976"/>
+        <c:axId val="124512896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96896512"/>
+        <c:crossAx val="124522880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96896512"/>
+        <c:axId val="124522880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,7 +3375,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96894976"/>
+        <c:crossAx val="124512896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3390,7 +3390,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.31496062992125995" footer="0.31496062992125995"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.31496062992126006" footer="0.31496062992126006"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3815,7 +3815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18"/>
+      <selection pane="topRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3853,7 +3853,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="46">
         <f ca="1">NOW()</f>
-        <v>40844.70345277778</v>
+        <v>40844.726674537036</v>
       </c>
       <c r="F3" s="46"/>
     </row>
@@ -3959,7 +3959,9 @@
         <v>1</v>
       </c>
       <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -3974,7 +3976,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="1">
         <f t="shared" ref="Y7:Y15" si="0">SUM(C7:X7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -4425,7 +4427,7 @@
       </c>
       <c r="L15" s="35">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M15" s="35">
         <f t="shared" si="1"/>
@@ -4477,7 +4479,7 @@
       </c>
       <c r="Y15" s="38">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -4744,7 +4746,7 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="4"/>
@@ -4796,7 +4798,7 @@
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4819,7 +4821,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
@@ -4836,7 +4838,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
